--- a/src/test/java/countries.xlsx
+++ b/src/test/java/countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dededim\dene\src\test\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5037B3C5-39F9-479E-82BC-06EDA08C0969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09D2D5D-8E5C-4A83-ABA3-0553669D5342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <t>Moscow</t>
   </si>
   <si>
-    <t>Develop</t>
+    <t>master</t>
   </si>
 </sst>
 </file>

--- a/src/test/java/countries.xlsx
+++ b/src/test/java/countries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dededim\dene\src\test\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5037B3C5-39F9-479E-82BC-06EDA08C0969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F393842-497C-4951-A93B-760F713EEAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
     <t>Moscow</t>
   </si>
   <si>
-    <t>Develop</t>
+    <t>Develop last</t>
   </si>
 </sst>
 </file>

--- a/src/test/java/countries.xlsx
+++ b/src/test/java/countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dededim\dene\src\test\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F393842-497C-4951-A93B-760F713EEAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF3F990-B16B-4738-8C81-EF4AD2EFF662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <t>Moscow</t>
   </si>
   <si>
-    <t>Develop last</t>
+    <t>Develop  first</t>
   </si>
 </sst>
 </file>

--- a/src/test/java/countries.xlsx
+++ b/src/test/java/countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dededim\dene\src\test\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF3F990-B16B-4738-8C81-EF4AD2EFF662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60BB18E-6AA8-42EB-8450-371C1376B083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <t>Moscow</t>
   </si>
   <si>
-    <t>Develop  first</t>
+    <t>Develop  from</t>
   </si>
 </sst>
 </file>

--- a/src/test/java/countries.xlsx
+++ b/src/test/java/countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dededim\dene\src\test\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60BB18E-6AA8-42EB-8450-371C1376B083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D145C3-2ED7-4B02-98CF-2D452B1DDB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <t>Moscow</t>
   </si>
   <si>
-    <t>Develop  from</t>
+    <t>Develop  son</t>
   </si>
 </sst>
 </file>

--- a/src/test/java/countries.xlsx
+++ b/src/test/java/countries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dededim\dene\src\test\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60BB18E-6AA8-42EB-8450-371C1376B083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736BBD3B-C257-41E2-879B-847C18768734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
     <t>Moscow</t>
   </si>
   <si>
-    <t>Develop  from</t>
+    <t>master  from</t>
   </si>
 </sst>
 </file>

--- a/src/test/java/countries.xlsx
+++ b/src/test/java/countries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dededim\dene\src\test\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D145C3-2ED7-4B02-98CF-2D452B1DDB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896C7EC2-6884-470F-81AA-D0A64E36086B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
     <t>Moscow</t>
   </si>
   <si>
-    <t>Develop  son</t>
+    <t>Develop  ilk</t>
   </si>
 </sst>
 </file>

--- a/src/test/java/countries.xlsx
+++ b/src/test/java/countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dededim\dene\src\test\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896C7EC2-6884-470F-81AA-D0A64E36086B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5F4659-499B-4D56-B884-B1DDAD3173C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <t>Moscow</t>
   </si>
   <si>
-    <t>Develop  ilk</t>
+    <t>Develop  123</t>
   </si>
 </sst>
 </file>

--- a/src/test/java/countries.xlsx
+++ b/src/test/java/countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dededim\dene\src\test\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736BBD3B-C257-41E2-879B-847C18768734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC88457-7877-49CC-BBE9-E497A0B0F16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <t>Moscow</t>
   </si>
   <si>
-    <t>master  from</t>
+    <t>master  123</t>
   </si>
 </sst>
 </file>

--- a/src/test/java/countries.xlsx
+++ b/src/test/java/countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dededim\dene\src\test\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5F4659-499B-4D56-B884-B1DDAD3173C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F156A813-76B5-4670-A968-2AEF3B8E0C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <t>Moscow</t>
   </si>
   <si>
-    <t>Develop  123</t>
+    <t>Develop  123456</t>
   </si>
 </sst>
 </file>

--- a/src/test/java/countries.xlsx
+++ b/src/test/java/countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dededim\dene\src\test\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F156A813-76B5-4670-A968-2AEF3B8E0C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657A8551-51CE-4C14-98B2-20F46C05D73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <t>Moscow</t>
   </si>
   <si>
-    <t>Develop  123456</t>
+    <t xml:space="preserve">Develop  </t>
   </si>
 </sst>
 </file>
